--- a/MarsQA-1/Data/Data.xlsx
+++ b/MarsQA-1/Data/Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Language</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>Hindi</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Korean</t>
   </si>
 </sst>
 </file>
@@ -371,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,7 +397,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1"/>
     </row>
@@ -401,14 +407,24 @@
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
